--- a/CashFlow/HSY_cashflow.xlsx
+++ b/CashFlow/HSY_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3831000000.0</v>
+        <v>785989000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3753000000.0</v>
+        <v>-151918000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2942320000.0</v>
+        <v>1401000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1982880000.0</v>
+        <v>-42516000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>817216000.0</v>
+        <v>-42691000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-21194000.0</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>594834000.0</v>
+        <v>2254000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>41470000.0</v>
+        <v>2232000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>683265000.0</v>
+        <v>2203000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -4642,10 +4642,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>-270069000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>-185664000.0</v>
